--- a/outputs/BURs/BUR Testing_Corporate.xlsx
+++ b/outputs/BURs/BUR Testing_Corporate.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Corp Business Development" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Corp China Pacific" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Corp EH&amp;S" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Corp Human Resources" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Corp Information Technology" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Corp Legal" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Corp Logistics" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Corp RBS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Corp Sourcing" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Corp Trade Compliance" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Finance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Corp Information Technology" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Corp Legal" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Corp Logistics" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Corp RBS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Corp Sourcing" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Corp Trade Compliance" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Finance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Corp Human Resources" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="L1_Corporate" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Corp Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">Voluntary Turnover Professional</t>
+    <t xml:space="preserve">Professional Voluntary Turnover</t>
   </si>
   <si>
     <t xml:space="preserve">PY Actual</t>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">Corp EH&amp;S</t>
   </si>
   <si>
-    <t xml:space="preserve">Corp Human Resources</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corp Information Technology</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corp Human Resources</t>
   </si>
   <si>
     <t xml:space="preserve">L1_Corporate</t>
@@ -979,13 +979,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.2022</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>0.0323</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="n">
         <v>0</v>
@@ -994,46 +994,46 @@
         <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
-        <v>0.0314</v>
+        <v>0</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="10" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="L2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="10" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="N2" s="10" t="n">
-        <v>0.0143</v>
+        <v>0</v>
       </c>
       <c r="O2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="10" t="n">
-        <v>0.0139</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="10" t="n">
-        <v>0.0282</v>
+        <v>0</v>
       </c>
       <c r="R2" s="10" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="S2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="10" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="U2" s="10" t="n">
-        <v>0.0424</v>
+        <v>0</v>
       </c>
       <c r="V2" s="10" t="n">
-        <v>0.1171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1047,13 +1047,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.2022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>0.02907</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
         <v>0</v>
@@ -1062,46 +1062,46 @@
         <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
-        <v>0.02826</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="10" t="n">
-        <v>0.01323</v>
+        <v>0</v>
       </c>
       <c r="L3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="10" t="n">
-        <v>0.01323</v>
+        <v>0</v>
       </c>
       <c r="N3" s="10" t="n">
-        <v>0.01287</v>
+        <v>0</v>
       </c>
       <c r="O3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="10" t="n">
-        <v>0.01251</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="10" t="n">
-        <v>0.02538</v>
+        <v>0</v>
       </c>
       <c r="R3" s="10" t="n">
-        <v>0.0261</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="10" t="n">
-        <v>0.01233</v>
+        <v>0</v>
       </c>
       <c r="U3" s="10" t="n">
-        <v>0.03816</v>
+        <v>0</v>
       </c>
       <c r="V3" s="10" t="n">
-        <v>0.10539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1115,61 +1115,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.2022</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>0.0133</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0.0417</v>
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>0.0541</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.0133</v>
+        <v>0</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.2022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1182,52 +1182,32 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0.3333</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
       <c r="V5" s="10" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1240,9 +1220,7 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -1296,70 +1274,6 @@
       </c>
       <c r="V6" s="10" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1455,61 +1369,61 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>0</v>
+        <v>0.1347</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="G2" s="11" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="H2" s="11" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>0</v>
+        <v>0.0295</v>
       </c>
       <c r="J2" s="11" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
       <c r="L2" s="11" t="n">
-        <v>0</v>
+        <v>0.0126</v>
       </c>
       <c r="M2" s="11" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="N2" s="11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O2" s="11" t="n">
-        <v>0</v>
+        <v>0.0099</v>
       </c>
       <c r="P2" s="11" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="Q2" s="11" t="n">
-        <v>0</v>
+        <v>0.0271</v>
       </c>
       <c r="R2" s="11" t="n">
-        <v>0</v>
+        <v>0.0096</v>
       </c>
       <c r="S2" s="11" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="T2" s="11" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="U2" s="11" t="n">
-        <v>0</v>
+        <v>0.0166</v>
       </c>
       <c r="V2" s="11" t="n">
-        <v>0</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="3">
@@ -1523,61 +1437,61 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0</v>
+        <v>0.1347</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="11" t="n">
-        <v>0</v>
+        <v>0.00486</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>0</v>
+        <v>0.00954</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>0</v>
+        <v>0.01206</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>0</v>
+        <v>0.02655</v>
       </c>
       <c r="J3" s="11" t="n">
-        <v>0</v>
+        <v>0.00234</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>0</v>
+        <v>0.00684</v>
       </c>
       <c r="L3" s="11" t="n">
-        <v>0</v>
+        <v>0.01134</v>
       </c>
       <c r="M3" s="11" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="N3" s="11" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="O3" s="11" t="n">
-        <v>0</v>
+        <v>0.00891</v>
       </c>
       <c r="P3" s="11" t="n">
-        <v>0</v>
+        <v>0.01089</v>
       </c>
       <c r="Q3" s="11" t="n">
-        <v>0</v>
+        <v>0.02439</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>0</v>
+        <v>0.00864</v>
       </c>
       <c r="S3" s="11" t="n">
-        <v>0</v>
+        <v>0.00216</v>
       </c>
       <c r="T3" s="11" t="n">
-        <v>0</v>
+        <v>0.00423</v>
       </c>
       <c r="U3" s="11" t="n">
-        <v>0</v>
+        <v>0.01494</v>
       </c>
       <c r="V3" s="11" t="n">
-        <v>0</v>
+        <v>0.08595</v>
       </c>
     </row>
     <row r="4">
@@ -1591,61 +1505,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0</v>
+        <v>0.1347</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0</v>
+        <v>0.0188</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.033675</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.033675</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.033675</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="5">
@@ -1658,30 +1572,58 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="11"/>
+      <c r="F5" s="11" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="n">
+        <v>0.75</v>
+      </c>
       <c r="I5" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+        <v>0.7143</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>0.4286</v>
+      </c>
       <c r="V5" s="11" t="n">
         <v>0.5</v>
       </c>
@@ -1696,7 +1638,9 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -1750,6 +1694,74 @@
       </c>
       <c r="V6" s="11" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="U7" s="11" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="V7" s="11" t="n">
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1845,399 +1857,61 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0.1347</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>0.0106</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12" t="n">
-        <v>0.0133</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12" t="n">
-        <v>0.0076</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>0.0126</v>
+        <v>0</v>
       </c>
       <c r="M2" s="12" t="n">
-        <v>0.0229</v>
+        <v>0</v>
       </c>
       <c r="N2" s="12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O2" s="12" t="n">
-        <v>0.0099</v>
+        <v>0</v>
       </c>
       <c r="P2" s="12" t="n">
-        <v>0.0121</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="12" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="R2" s="12" t="n">
-        <v>0.0096</v>
+        <v>0</v>
       </c>
       <c r="S2" s="12" t="n">
-        <v>0.0024</v>
+        <v>0</v>
       </c>
       <c r="T2" s="12" t="n">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
       <c r="U2" s="12" t="n">
-        <v>0.0166</v>
+        <v>0</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>0.0953</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>0.1347</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>0.00486</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0.00954</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0.01197</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0.02646</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0.00234</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0.00684</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>0.01134</v>
-      </c>
-      <c r="M3" s="12" t="n">
-        <v>0.02061</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="O3" s="12" t="n">
-        <v>0.00891</v>
-      </c>
-      <c r="P3" s="12" t="n">
-        <v>0.01089</v>
-      </c>
-      <c r="Q3" s="12" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="R3" s="12" t="n">
-        <v>0.00864</v>
-      </c>
-      <c r="S3" s="12" t="n">
-        <v>0.00216</v>
-      </c>
-      <c r="T3" s="12" t="n">
-        <v>0.00423</v>
-      </c>
-      <c r="U3" s="12" t="n">
-        <v>0.01494</v>
-      </c>
-      <c r="V3" s="12" t="n">
-        <v>0.08577</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>0.1347</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0.0188</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0.0449</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="P4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="Q4" s="12" t="n">
-        <v>0.0449</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="S4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="T4" s="12" t="n">
-        <v>0.011225</v>
-      </c>
-      <c r="U4" s="12" t="n">
-        <v>0.0449</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0.1347</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="n">
-        <v>0.4615</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="O5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="12" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="R5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="T5" s="12" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="U5" s="12" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="V5" s="12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="S7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="U7" s="12" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="V7" s="12" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2339,55 +2013,55 @@
         <v>25</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.0125</v>
+        <v>0.0127</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
       <c r="H2" s="13" t="n">
-        <v>0.0101</v>
+        <v>0.0102</v>
       </c>
       <c r="I2" s="13" t="n">
-        <v>0.0281</v>
+        <v>0.0285</v>
       </c>
       <c r="J2" s="13" t="n">
         <v>0.0044</v>
       </c>
       <c r="K2" s="13" t="n">
-        <v>0.0075</v>
+        <v>0.0076</v>
       </c>
       <c r="L2" s="13" t="n">
-        <v>0.0107</v>
+        <v>0.0109</v>
       </c>
       <c r="M2" s="13" t="n">
-        <v>0.0226</v>
+        <v>0.023</v>
       </c>
       <c r="N2" s="13" t="n">
-        <v>0.0042</v>
+        <v>0.0043</v>
       </c>
       <c r="O2" s="13" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="R2" s="13" t="n">
         <v>0.0116</v>
       </c>
-      <c r="P2" s="13" t="n">
-        <v>0.0093</v>
-      </c>
-      <c r="Q2" s="13" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="R2" s="13" t="n">
-        <v>0.0114</v>
-      </c>
       <c r="S2" s="13" t="n">
-        <v>0.0072</v>
+        <v>0.0073</v>
       </c>
       <c r="T2" s="13" t="n">
-        <v>0.0092</v>
+        <v>0.0094</v>
       </c>
       <c r="U2" s="13" t="n">
-        <v>0.0279</v>
+        <v>0.0283</v>
       </c>
       <c r="V2" s="13" t="n">
-        <v>0.1038</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="3">
@@ -2407,55 +2081,55 @@
         <v>26</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.01125</v>
+        <v>0.01143</v>
       </c>
       <c r="G3" s="13" t="n">
-        <v>0.00504</v>
+        <v>0.00513</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>0.00909</v>
+        <v>0.00918</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>0.02529</v>
+        <v>0.02565</v>
       </c>
       <c r="J3" s="13" t="n">
         <v>0.00396</v>
       </c>
       <c r="K3" s="13" t="n">
-        <v>0.00675</v>
+        <v>0.00684</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>0.00963</v>
+        <v>0.00981</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>0.02034</v>
+        <v>0.0207</v>
       </c>
       <c r="N3" s="13" t="n">
-        <v>0.00378</v>
+        <v>0.00387</v>
       </c>
       <c r="O3" s="13" t="n">
+        <v>0.01062</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>0.00855</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>0.02304</v>
+      </c>
+      <c r="R3" s="13" t="n">
         <v>0.01044</v>
       </c>
-      <c r="P3" s="13" t="n">
-        <v>0.00837</v>
-      </c>
-      <c r="Q3" s="13" t="n">
-        <v>0.02268</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>0.01026</v>
-      </c>
       <c r="S3" s="13" t="n">
-        <v>0.00648</v>
+        <v>0.00657</v>
       </c>
       <c r="T3" s="13" t="n">
-        <v>0.00828</v>
+        <v>0.00846</v>
       </c>
       <c r="U3" s="13" t="n">
-        <v>0.02511</v>
+        <v>0.02547</v>
       </c>
       <c r="V3" s="13" t="n">
-        <v>0.09342</v>
+        <v>0.09495</v>
       </c>
     </row>
     <row r="4">
@@ -2496,7 +2170,7 @@
         <v>0.012425</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0.0497</v>
+        <v>0.037275</v>
       </c>
       <c r="N4" s="13" t="n">
         <v>0.012425</v>
@@ -2508,7 +2182,7 @@
         <v>0.012425</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.0497</v>
+        <v>0.037275</v>
       </c>
       <c r="R4" s="13" t="n">
         <v>0.012425</v>
@@ -2520,7 +2194,7 @@
         <v>0.012425</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.0497</v>
+        <v>0.037275</v>
       </c>
       <c r="V4" s="13" t="n">
         <v>0.1491</v>
@@ -3726,7 +3400,7 @@
         <v>0.0862</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.2586</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0.0862</v>
@@ -3738,7 +3412,7 @@
         <v>0.0862</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.2586</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.0862</v>
@@ -3750,7 +3424,7 @@
         <v>0.0862</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.2586</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>1.0344</v>
@@ -3849,61 +3523,61 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0</v>
+        <v>0.1179</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>0</v>
+        <v>0.0099</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0</v>
+        <v>0.0233</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="3">
@@ -3917,61 +3591,61 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0</v>
+        <v>0.1179</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0</v>
+        <v>0.01575</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0</v>
+        <v>0.00315</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0</v>
+        <v>0.00945</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0</v>
+        <v>0.02835</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0</v>
+        <v>0.00306</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0</v>
+        <v>0.00612</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0</v>
+        <v>0.00918</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0</v>
+        <v>0.01845</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>0</v>
+        <v>0.01206</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>0</v>
+        <v>0.00891</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0</v>
+        <v>0.02097</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0</v>
+        <v>0.01485</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>0.00594</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0</v>
+        <v>0.01188</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0</v>
+        <v>0.03258</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0</v>
+        <v>0.10044</v>
       </c>
     </row>
     <row r="4">
@@ -3985,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.1179</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3994,52 +3668,248 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>0.0099</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.029475</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.029475</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.009825</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.029475</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0.647058823529412</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -4135,61 +4005,61 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.1179</v>
+        <v>0.3846</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.0173</v>
+        <v>0.0217</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.0035</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.0103</v>
+        <v>0.0222</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.0311</v>
+        <v>0.0438</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0034</v>
+        <v>0.0227</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>0.0067</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>0.01</v>
+        <v>0.0227</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>0.0201</v>
+        <v>0.0451</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>0.0132</v>
+        <v>0.0465</v>
       </c>
       <c r="P2" s="6" t="n">
-        <v>0.0097</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="6" t="n">
-        <v>0.0229</v>
+        <v>0.0682</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>0.0162</v>
+        <v>0</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>0.0065</v>
+        <v>0.0667</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>0.0355</v>
+        <v>0.0656</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>0.1097</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="3">
@@ -4203,61 +4073,61 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.1179</v>
+        <v>0.3846</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.01557</v>
+        <v>0.01953</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.00315</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.00927</v>
+        <v>0.01998</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.02799</v>
+        <v>0.03942</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.00306</v>
+        <v>0.02043</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>0.00603</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6" t="n">
-        <v>0.009</v>
+        <v>0.02043</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>0.01809</v>
+        <v>0.04059</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0</v>
+        <v>0.02043</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>0.01188</v>
+        <v>0.04185</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>0.00873</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <v>0.02061</v>
+        <v>0.06138</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>0.01458</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6" t="n">
-        <v>0.00585</v>
+        <v>0.06003</v>
       </c>
       <c r="T3" s="6" t="n">
-        <v>0.01161</v>
+        <v>0</v>
       </c>
       <c r="U3" s="6" t="n">
-        <v>0.03195</v>
+        <v>0.05904</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>0.09873</v>
+        <v>0.20043</v>
       </c>
     </row>
     <row r="4">
@@ -4271,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1179</v>
+        <v>0.3846</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4280,52 +4150,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0163</v>
+        <v>0.0417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0132</v>
+        <v>0.0444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0294</v>
+        <v>0.0839</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0099</v>
+        <v>0.0455</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0393</v>
+        <v>0.09615</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0393</v>
+        <v>0.09615</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.009825</v>
+        <v>0.03205</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0393</v>
+        <v>0.09615</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="5">
@@ -4339,57 +4209,51 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1667</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="6"/>
       <c r="P5" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>0.3333</v>
+      </c>
+      <c r="R5" s="6"/>
       <c r="S5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="6" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="U5" s="6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.647058823529412</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -4403,7 +4267,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4471,57 +4335,57 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -4617,61 +4481,61 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.3846</v>
+        <v>0.0984</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.0217</v>
+        <v>0.0196</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>0.0438</v>
+        <v>0.0195</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0222</v>
+        <v>0.0185</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0</v>
+        <v>0.0172</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>0.0222</v>
+        <v>0.0179</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>0.0442</v>
+        <v>0.0536</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>0.0455</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0.0667</v>
+        <v>0</v>
       </c>
       <c r="R2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>0.0652</v>
+        <v>0.0179</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>0</v>
+        <v>0.0377</v>
       </c>
       <c r="U2" s="7" t="n">
-        <v>0.0642</v>
+        <v>0.0542</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.2188</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="3">
@@ -4685,61 +4549,61 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.3846</v>
+        <v>0.0984</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.01953</v>
+        <v>0.01764</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.01998</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>0.03942</v>
+        <v>0.01755</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.01998</v>
+        <v>0.01665</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0</v>
+        <v>0.01548</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>0.01998</v>
+        <v>0.01611</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>0.03978</v>
+        <v>0.04824</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>0.01998</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>0.04095</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0.06003</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>0.05868</v>
+        <v>0.01611</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>0</v>
+        <v>0.03393</v>
       </c>
       <c r="U3" s="7" t="n">
-        <v>0.05778</v>
+        <v>0.04878</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.19692</v>
+        <v>0.11475</v>
       </c>
     </row>
     <row r="4">
@@ -4753,7 +4617,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.3846</v>
+        <v>0.0984</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4762,52 +4626,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0417</v>
+        <v>0.0164</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.0444</v>
+        <v>0.0167</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0839</v>
+        <v>0.0332</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0455</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.1282</v>
+        <v>0.0246</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.1282</v>
+        <v>0.0246</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.03205</v>
+        <v>0.0082</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.1282</v>
+        <v>0.0246</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.3846</v>
+        <v>0.0984</v>
       </c>
     </row>
     <row r="5">
@@ -4821,51 +4685,45 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H5" s="7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7"/>
-      <c r="S5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="U5" s="7" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="7" t="n">
-        <v>0.416666666666667</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -4879,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4947,57 +4805,59 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I7" s="7" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -5093,13 +4953,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0984</v>
+        <v>1.7142</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>0.0172</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8" t="n">
         <v>0</v>
@@ -5108,19 +4968,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>0.0172</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.0154</v>
+        <v>0</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="M2" s="8" t="n">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
       <c r="N2" s="8" t="n">
         <v>0</v>
@@ -5138,16 +4998,16 @@
         <v>0</v>
       </c>
       <c r="S2" s="8" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="n">
-        <v>0.0333</v>
+        <v>0</v>
       </c>
       <c r="U2" s="8" t="n">
-        <v>0.0482</v>
+        <v>0</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>0.1131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5161,13 +5021,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0984</v>
+        <v>1.7142</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>0.01548</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8" t="n">
         <v>0</v>
@@ -5176,19 +5036,19 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="n">
-        <v>0.01548</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>0.01476</v>
+        <v>0</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>0.01386</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>0.01431</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>0.04284</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8" t="n">
         <v>0</v>
@@ -5206,16 +5066,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="8" t="n">
-        <v>0.01431</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="n">
-        <v>0.02997</v>
+        <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>0.04338</v>
+        <v>0</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>0.10179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5229,61 +5089,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0984</v>
+        <v>1.7142</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>0.0167</v>
+        <v>0.3333</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.0332</v>
+        <v>0.5405</v>
       </c>
       <c r="J4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0328</v>
+        <v>0.42855</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0328</v>
+        <v>0.42855</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0082</v>
+        <v>0.14285</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0328</v>
+        <v>0.42855</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0984</v>
+        <v>1.7142</v>
       </c>
     </row>
     <row r="5">
@@ -5297,35 +5157,23 @@
         <v>28</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="n">
         <v>0</v>
@@ -5335,7 +5183,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5349,7 +5197,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -5417,59 +5265,55 @@
         <v>28</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5565,13 +5409,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>1.7142</v>
+        <v>0.2022</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="G2" s="9" t="n">
         <v>0</v>
@@ -5580,46 +5424,46 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="n">
-        <v>0</v>
+        <v>0.0314</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="L2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="N2" s="9" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="O2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="9" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="Q2" s="9" t="n">
-        <v>0</v>
+        <v>0.0282</v>
       </c>
       <c r="R2" s="9" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="S2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="9" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="U2" s="9" t="n">
-        <v>0</v>
+        <v>0.0424</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>0</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="3">
@@ -5633,13 +5477,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>1.7142</v>
+        <v>0.2022</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>0</v>
+        <v>0.02907</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>0</v>
@@ -5648,46 +5492,46 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="n">
-        <v>0</v>
+        <v>0.02826</v>
       </c>
       <c r="J3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0</v>
+        <v>0.01323</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>0</v>
+        <v>0.01323</v>
       </c>
       <c r="N3" s="9" t="n">
-        <v>0</v>
+        <v>0.01287</v>
       </c>
       <c r="O3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="9" t="n">
-        <v>0</v>
+        <v>0.01251</v>
       </c>
       <c r="Q3" s="9" t="n">
-        <v>0</v>
+        <v>0.02538</v>
       </c>
       <c r="R3" s="9" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="S3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="9" t="n">
-        <v>0</v>
+        <v>0.01233</v>
       </c>
       <c r="U3" s="9" t="n">
-        <v>0</v>
+        <v>0.03816</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>0</v>
+        <v>0.10539</v>
       </c>
     </row>
     <row r="4">
@@ -5701,61 +5545,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>1.7142</v>
+        <v>0.2022</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.0133</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>0.3333</v>
+        <v>0.0417</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>0.5405</v>
+        <v>0.0541</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.5714</v>
+        <v>0.05055</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.5714</v>
+        <v>0.05055</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.14285</v>
+        <v>0.01685</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.5714</v>
+        <v>0.05055</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>1.7142</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="5">
@@ -5776,26 +5620,44 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="T5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V5" s="9" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -5882,7 +5744,9 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="n">
         <v>1</v>

--- a/outputs/BURs/BUR Testing_Corporate.xlsx
+++ b/outputs/BURs/BUR Testing_Corporate.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -725,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -979,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1115,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1369,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>0.1347</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.1347</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1505,7 +1505,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.1347</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1857,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2007,7 +2007,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>0.1491</v>
+        <v>0.0366</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2075,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.1491</v>
+        <v>0.0366</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2143,7 +2143,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.1491</v>
+        <v>0.0366</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2497,7 +2497,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2633,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2951,7 +2951,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3019,7 +3019,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3087,7 +3087,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3237,7 +3237,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.0344</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3305,7 +3305,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.0344</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3373,7 +3373,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.0344</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3523,7 +3523,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.1179</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3591,7 +3591,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.1179</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3659,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1179</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4005,7 +4005,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4073,7 +4073,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4141,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4481,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0984</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4549,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0984</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4617,7 +4617,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0984</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4953,7 +4953,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1.7142</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5021,7 +5021,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>1.7142</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5089,7 +5089,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>1.7142</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -5409,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.2022</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5477,7 +5477,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.2022</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5545,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.2022</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>

--- a/outputs/BURs/BUR Testing_Corporate.xlsx
+++ b/outputs/BURs/BUR Testing_Corporate.xlsx
@@ -17,14 +17,13 @@
     <sheet name="Corp Sourcing" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Corp Trade Compliance" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Finance" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Corp Human Resources" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="L1_Corporate" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="L1_Corporate" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -143,9 +142,6 @@
     <t xml:space="preserve">Finance</t>
   </si>
   <si>
-    <t xml:space="preserve">Corp Human Resources</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1_Corporate</t>
   </si>
 </sst>
@@ -153,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -166,7 +162,6 @@
     <numFmt numFmtId="174" formatCode="0.0%"/>
     <numFmt numFmtId="175" formatCode="0.0%"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -202,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -216,7 +211,6 @@
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -657,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -725,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -979,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1047,7 +1041,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1115,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1136,40 +1130,40 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0</v>
+        <v>0.1212</v>
       </c>
     </row>
     <row r="5">
@@ -1369,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1437,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1505,61 +1499,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="11" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="H4" s="11" t="n">
         <v>0.0071</v>
       </c>
-      <c r="G4" s="11" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>0.007</v>
-      </c>
       <c r="I4" s="11" t="n">
-        <v>0.0188</v>
+        <v>0.0191</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.0264</v>
+        <v>0.0268</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.0024</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.033675</v>
+        <v>0.028675</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.033675</v>
+        <v>0.028675</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.011225</v>
+        <v>0.00955833333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.033675</v>
+        <v>0.028675</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.1347</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="5">
@@ -1573,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1639,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1707,7 +1701,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1716,52 +1710,52 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.1667</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="U7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="V7" s="11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.181818181818182</v>
       </c>
     </row>
   </sheetData>
@@ -1857,210 +1851,60 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0.0498</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="12" t="n">
         <v>0.0127</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="12" t="n">
         <v>0.0057</v>
       </c>
-      <c r="H2" s="13" t="n">
+      <c r="H2" s="12" t="n">
         <v>0.0102</v>
       </c>
-      <c r="I2" s="13" t="n">
+      <c r="I2" s="12" t="n">
         <v>0.0285</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="12" t="n">
         <v>0.0044</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="12" t="n">
         <v>0.0076</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>0.0109</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="12" t="n">
         <v>0.023</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="12" t="n">
         <v>0.0043</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="12" t="n">
         <v>0.0118</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="12" t="n">
         <v>0.0095</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="12" t="n">
         <v>0.0256</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="12" t="n">
         <v>0.0116</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="12" t="n">
         <v>0.0073</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="12" t="n">
         <v>0.0094</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="12" t="n">
         <v>0.0283</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="12" t="n">
         <v>0.1055</v>
       </c>
     </row>
@@ -2069,66 +1913,66 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <v>0.0366</v>
+      <c r="D3" s="12" t="n">
+        <v>0.0454</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <v>0.01143</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="12" t="n">
         <v>0.00513</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="12" t="n">
         <v>0.00918</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="12" t="n">
         <v>0.02565</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="12" t="n">
         <v>0.00396</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="12" t="n">
         <v>0.00684</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>0.00981</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="12" t="n">
         <v>0.0207</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="12" t="n">
         <v>0.00387</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="12" t="n">
         <v>0.01062</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="12" t="n">
         <v>0.00855</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <v>0.02304</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <v>0.01044</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <v>0.00657</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <v>0.00846</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <v>0.02547</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <v>0.09495</v>
       </c>
     </row>
@@ -2137,67 +1981,67 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <v>0.0366</v>
+      <c r="D4" s="12" t="n">
+        <v>0.0454</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0.0178</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0.037275</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0.037275</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0.012425</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0.037275</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0.1491</v>
+      <c r="F4" s="12" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>0.03445</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>0.03445</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>0.0114833333333333</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>0.03445</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>0.1378</v>
       </c>
     </row>
     <row r="5">
@@ -2205,66 +2049,66 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="n">
-        <v>0.461538461538462</v>
+      <c r="D5" s="12" t="n">
+        <v>0.4</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>0.4286</v>
       </c>
-      <c r="G5" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="13" t="n">
+      <c r="G5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="12" t="n">
         <v>0.4167</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="12" t="n">
         <v>0.4348</v>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="12" t="n">
         <v>0.4167</v>
       </c>
-      <c r="K5" s="13" t="n">
+      <c r="K5" s="12" t="n">
         <v>0.2857</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="12" t="n">
         <v>0.75</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>0.4348</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="12" t="n">
         <v>0.5455</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>0.625</v>
       </c>
-      <c r="P5" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="13" t="n">
+      <c r="P5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="12" t="n">
         <v>0.5556</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <v>0.6667</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <v>0.2</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <v>0.4286</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <v>0.465909090909091</v>
       </c>
     </row>
@@ -2273,66 +2117,66 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="n">
-        <v>0.461538461538462</v>
+      <c r="D6" s="12" t="n">
+        <v>0.4</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="13" t="n">
+      <c r="F6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="12" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2341,67 +2185,67 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>0.461538461538462</v>
+      <c r="D7" s="12" t="n">
+        <v>0.4</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>0.4286</v>
       </c>
-      <c r="G7" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="13" t="n">
+      <c r="G7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="n">
         <v>0.8</v>
       </c>
-      <c r="I7" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="n">
+      <c r="I7" s="12" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="J7" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="K7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="M7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="N7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="P7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="Q7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="R7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="T7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="U7" s="13" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="V7" s="13" t="n">
-        <v>0.461538461538462</v>
+      <c r="K7" s="12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V7" s="12" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2565,7 +2409,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2633,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2821,9 +2665,7 @@
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2" t="n">
         <v>0</v>
       </c>
@@ -2951,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3019,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3087,7 +2929,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3237,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3305,7 +3147,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3373,7 +3215,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3394,40 +3236,98 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.2586</v>
+        <v>0.206875</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.2586</v>
+        <v>0.206875</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0862</v>
+        <v>0.0689583333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.2586</v>
+        <v>0.206875</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.0344</v>
+        <v>0.8275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3423,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3591,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3659,7 +3559,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3680,40 +3580,40 @@
         <v>0.0099</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0134</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.029475</v>
+        <v>0.031625</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.029475</v>
+        <v>0.031625</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.009825</v>
+        <v>0.0105416666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.029475</v>
+        <v>0.031625</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1179</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="5">
@@ -3875,9 +3775,7 @@
       <c r="J7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5" t="n">
         <v>0.8</v>
       </c>
@@ -4005,7 +3903,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4073,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4141,7 +4039,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4162,40 +4060,40 @@
         <v>0.0455</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.09615</v>
+        <v>0.077575</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.09615</v>
+        <v>0.077575</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.03205</v>
+        <v>0.0258583333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09615</v>
+        <v>0.077575</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="5">
@@ -4209,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4267,7 +4165,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4335,7 +4233,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -4352,40 +4250,40 @@
         <v>0</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4549,7 +4447,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4617,7 +4515,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4626,52 +4524,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="H4" s="7" t="n">
         <v>0.0164</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <v>0.0167</v>
-      </c>
       <c r="I4" s="7" t="n">
-        <v>0.0332</v>
+        <v>0.0326</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.0159</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0246</v>
+        <v>0.028925</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0246</v>
+        <v>0.028925</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0082</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0246</v>
+        <v>0.028925</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0984</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="5">
@@ -4685,7 +4583,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4737,7 +4635,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4805,7 +4703,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -4824,40 +4722,40 @@
         <v>0</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -4953,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5021,7 +4919,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5089,7 +4987,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -5110,40 +5008,40 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.42855</v>
+        <v>0.352925</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.42855</v>
+        <v>0.352925</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.14285</v>
+        <v>0.117641666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.42855</v>
+        <v>0.352925</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>1.7142</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="5">
@@ -5279,9 +5177,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="8" t="n">
         <v>1</v>
       </c>
@@ -5409,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5477,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5545,7 +5441,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -5566,40 +5462,40 @@
         <v>0.0133</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.05055</v>
+        <v>0.0402</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.05055</v>
+        <v>0.0402</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.01685</v>
+        <v>0.0134</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.05055</v>
+        <v>0.0402</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.2022</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="5">
@@ -5755,9 +5651,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="9" t="n">
         <v>1</v>
       </c>

--- a/outputs/BURs/BUR Testing_Corporate.xlsx
+++ b/outputs/BURs/BUR Testing_Corporate.xlsx
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.028</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1041,7 +1041,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.028</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.028</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1130,40 +1130,40 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.0526</v>
+        <v>0.0286</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0303</v>
+        <v>0.0283</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0303</v>
+        <v>0.014</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0101</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0303</v>
+        <v>0.014</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.1212</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="5">
@@ -1363,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>0.0533</v>
+        <v>0.0523</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.0533</v>
+        <v>0.0523</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1499,7 +1499,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.0533</v>
+        <v>0.0523</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1523,37 +1523,37 @@
         <v>0.0024</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.0047</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.028675</v>
+        <v>0.0333</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.028675</v>
+        <v>0.02615</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00955833333333333</v>
+        <v>0.00871666666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.028675</v>
+        <v>0.02615</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.1147</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="5">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1633,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1701,7 +1701,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1725,37 +1725,37 @@
         <v>0.1667</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="U7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="V7" s="11" t="n">
-        <v>0.181818181818182</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0.0454</v>
+        <v>0.0614</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1919,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>0.0454</v>
+        <v>0.0614</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1987,7 +1987,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>0.0454</v>
+        <v>0.0614</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2011,37 +2011,37 @@
         <v>0.0073</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0041</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.03445</v>
+        <v>0.0292</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.03445</v>
+        <v>0.0307</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0114833333333333</v>
+        <v>0.0102333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.03445</v>
+        <v>0.0307</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.1378</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="5">
@@ -2218,7 +2218,7 @@
         <v>0.4</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="N7" s="12" t="n">
         <v>0.4</v>
@@ -2341,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2409,7 +2409,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2477,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2666,9 +2666,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2861,7 +2859,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2929,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0533</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3079,7 +3077,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.3448</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3147,7 +3145,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.3448</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3215,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.3448</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3239,37 +3237,37 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.206875</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.206875</v>
+        <v>0.1724</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0689583333333333</v>
+        <v>0.0574666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.206875</v>
+        <v>0.1724</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8275</v>
+        <v>0.6896</v>
       </c>
     </row>
     <row r="5">
@@ -3296,9 +3294,7 @@
       <c r="K5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4" t="n">
         <v>0</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.0524</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3491,7 +3487,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.0524</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3559,7 +3555,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.0524</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3568,52 +3564,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0163</v>
+        <v>0.0162</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.0132</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0294</v>
+        <v>0.0292</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0.0099</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.031625</v>
+        <v>0.0232</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.031625</v>
+        <v>0.0262</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0105416666666667</v>
+        <v>0.00873333333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.031625</v>
+        <v>0.0262</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1265</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="5">
@@ -3627,7 +3623,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3691,7 +3687,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3759,7 +3755,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3777,37 +3773,37 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3899,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.1987</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3971,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.1987</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4039,7 +4035,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.1987</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4048,52 +4044,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0417</v>
+        <v>0.0625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0444</v>
+        <v>0.069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0839</v>
+        <v>0.1262</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0455</v>
+        <v>0.0714</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.077575</v>
+        <v>0.0697</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.077575</v>
+        <v>0.09935</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0258583333333333</v>
+        <v>0.0331166666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.077575</v>
+        <v>0.09935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3103</v>
+        <v>0.3974</v>
       </c>
     </row>
     <row r="5">
@@ -4252,11 +4248,9 @@
       <c r="K7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2</v>
@@ -4379,7 +4373,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.0804</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4447,7 +4441,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.0804</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4515,7 +4509,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.0804</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4539,37 +4533,37 @@
         <v>0.0159</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0323</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.028925</v>
+        <v>0.0476</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.028925</v>
+        <v>0.0402</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00964166666666667</v>
+        <v>0.0134</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.028925</v>
+        <v>0.0402</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1157</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="5">
@@ -4724,11 +4718,9 @@
       <c r="K7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v>0.444444444444444</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
-        <v>0.444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>0.444444444444444</v>
@@ -4851,7 +4843,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.6061</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4919,7 +4911,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.6061</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4987,7 +4979,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.6061</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -5011,37 +5003,37 @@
         <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.352925</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.352925</v>
+        <v>0.30305</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.117641666666667</v>
+        <v>0.101016666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.352925</v>
+        <v>0.30305</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>1.4117</v>
+        <v>1.2122</v>
       </c>
     </row>
     <row r="5">
@@ -5178,12 +5170,8 @@
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8" t="n">
         <v>1</v>
       </c>
@@ -5305,7 +5293,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0671</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5373,7 +5361,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0671</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5441,61 +5429,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0671</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>0.0133</v>
+        <v>0.0135</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>0.0417</v>
+        <v>0.0423</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>0.0541</v>
+        <v>0.0548</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0.0133</v>
+        <v>0.0135</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0402</v>
+        <v>0.0132</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0402</v>
+        <v>0.03355</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0134</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0402</v>
+        <v>0.03355</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.1608</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="5">
@@ -5652,12 +5640,8 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="9" t="n">
         <v>1</v>
       </c>

--- a/outputs/BURs/BUR Testing_Corporate.xlsx
+++ b/outputs/BURs/BUR Testing_Corporate.xlsx
@@ -1139,31 +1139,31 @@
         <v>0.0283</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5">
@@ -1363,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>0.0523</v>
+        <v>0.0613</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.0523</v>
+        <v>0.0613</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1499,13 +1499,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.0523</v>
+        <v>0.0613</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>0.0048</v>
@@ -1514,46 +1514,46 @@
         <v>0.0071</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.0191</v>
+        <v>0.019</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.0268</v>
+        <v>0.0266</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>0.0024</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.0047</v>
+        <v>0.0046</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0333</v>
+        <v>0.0331</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.0092</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.00875833333333333</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.00875833333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.02615</v>
+        <v>0.026275</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.00875833333333333</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.00875833333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00871666666666667</v>
+        <v>0.00875833333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.02615</v>
+        <v>0.026275</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.1046</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="5">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1633,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1701,7 +1701,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1725,37 +1725,37 @@
         <v>0.1667</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="11" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>1</v>
       </c>
       <c r="O7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0.0614</v>
+        <v>0.0683</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1919,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>0.0614</v>
+        <v>0.0683</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1987,13 +1987,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>0.0614</v>
+        <v>0.0683</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>0.0114</v>
@@ -2002,7 +2002,7 @@
         <v>0.0157</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.0322</v>
+        <v>0.0321</v>
       </c>
       <c r="J4" s="12" t="n">
         <v>0.0179</v>
@@ -2014,34 +2014,34 @@
         <v>0.0041</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.0072</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.00975833333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.00975833333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0307</v>
+        <v>0.029275</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.00975833333333333</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.00975833333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0102333333333333</v>
+        <v>0.00975833333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0307</v>
+        <v>0.029275</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.1228</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="5">
@@ -2055,7 +2055,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2123,7 +2123,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2191,7 +2191,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2215,37 +2215,37 @@
         <v>0.3</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.5714</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>0.36</v>
+        <v>0.4074</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.6667</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0.4</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2670,9 +2670,7 @@
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2" t="n">
         <v>0</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.339</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3145,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.339</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3213,7 +3211,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.3448</v>
+        <v>0.339</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3243,31 +3241,31 @@
         <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0.048425</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0.048425</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.1724</v>
+        <v>0.145275</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0.048425</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0.048425</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0574666666666667</v>
+        <v>0.048425</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.1724</v>
+        <v>0.145275</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6896</v>
+        <v>0.5811</v>
       </c>
     </row>
     <row r="5">
@@ -3298,9 +3296,7 @@
       <c r="M5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4" t="n">
         <v>0</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3487,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3555,7 +3551,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3567,13 +3563,13 @@
         <v>0.0162</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0132</v>
+        <v>0.0131</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0133</v>
@@ -3582,34 +3578,34 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0232</v>
+        <v>0.0231</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0.007475</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0.007475</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0262</v>
+        <v>0.022425</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0.007475</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0.007475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00873333333333333</v>
+        <v>0.007475</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0262</v>
+        <v>0.022425</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1048</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="5">
@@ -3778,9 +3774,7 @@
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>0.857142857142857</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>0.857142857142857</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.1987</v>
+        <v>0.2251</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3967,7 +3961,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.1987</v>
+        <v>0.2251</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4035,7 +4029,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1987</v>
+        <v>0.2251</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4044,17 +4038,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0625</v>
+        <v>0.0606</v>
       </c>
       <c r="H4" s="6" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>0.069</v>
       </c>
-      <c r="I4" s="6" t="n">
-        <v>0.1262</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>0.0714</v>
-      </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
       </c>
@@ -4062,34 +4056,34 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0697</v>
+        <v>0.0673</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0323</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0321583333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0321583333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.09935</v>
+        <v>0.096475</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0321583333333333</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0321583333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0331166666666667</v>
+        <v>0.0321583333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09935</v>
+        <v>0.096475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3974</v>
+        <v>0.3859</v>
       </c>
     </row>
     <row r="5">
@@ -4103,7 +4097,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4161,7 +4155,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4229,7 +4223,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -4253,31 +4247,31 @@
         <v>0</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +4367,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4441,7 +4435,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4509,7 +4503,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4539,31 +4533,31 @@
         <v>0.0476</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0.011475</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0.011475</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0402</v>
+        <v>0.034425</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0.011475</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0.011475</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0134</v>
+        <v>0.011475</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0402</v>
+        <v>0.034425</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1608</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="5">
@@ -4722,9 +4716,7 @@
       <c r="M7" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="N7" s="7" t="n">
-        <v>0.444444444444444</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="n">
         <v>0.444444444444444</v>
       </c>
@@ -5009,31 +5001,31 @@
         <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0.0865833333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0.0865833333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.30305</v>
+        <v>0.25975</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0.0865833333333333</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0.0865833333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.101016666666667</v>
+        <v>0.0865833333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.30305</v>
+        <v>0.25975</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>1.2122</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="5">
@@ -5172,9 +5164,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8" t="n">
         <v>1</v>
       </c>
@@ -5293,7 +5283,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0671</v>
+        <v>0.0946</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -5361,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0671</v>
+        <v>0.0946</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -5429,25 +5419,25 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0671</v>
+        <v>0.0946</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>0.0135</v>
+        <v>0.0137</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>0.0423</v>
+        <v>0.0429</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>0.0548</v>
+        <v>0.0556</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0.0135</v>
+        <v>0.0137</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>0</v>
@@ -5456,34 +5446,34 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0132</v>
+        <v>0.0133</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.026</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.03355</v>
+        <v>0.04055</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.03355</v>
+        <v>0.04055</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.1342</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="5">
@@ -5642,9 +5632,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="9" t="n">
         <v>1</v>
       </c>
